--- a/public/scenic.xlsx
+++ b/public/scenic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,468 +436,694 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>潮汕懒人版攻略✅主打一个不绕路</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>潮汕不只有牛肉火锅和生腌，还有无数让人流连忘返的景点！🚄但是出游前记得要做好攻略哦❗️❗️❗️作为资深旅游人我给大家准备了不绕路的旅行攻略，大家出发前可以看看～ · 🌈潮汕三天两晚行程安排 Day1️⃣ 汕头小公园——牛肉火锅——开埠文化陈列馆——汕头旅社——西堤公园——广场轮渡——龙眼路美食街 · Day2️⃣ 出发南澳岛——南澳大桥——长山尾灯塔——钱澳湾灯塔——云澳四海——三囱崖灯塔——风车山——青澳湾——孤独的树——北回归线 · Day3️⃣ 潮州牌坊街——开元寺——广济楼——广济桥——泰佛殿——潮州西湖 · ✅定期分享珠三角游玩好去处、团建活动 ✅好玩、有趣、新潮的活动通通安排 #潮汕#潮汕旅游攻略#汕头旅游攻略#汕头攻略#潮州攻略#潮汕美食#汕头旅游#汕头旅游必打卡#潮州旅游攻略#笔记灵感#人文景点分享#不想上班#周末去哪儿</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>1040g2sg313f6rf1m7q1g5pikgpr3cv5e4fb9ef0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>每周逃离深圳去旅行🦋第7站：潮汕</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>大嘎好，我是挑战周末去 50 个城市旅行的深漂@MERA莓莓 	 ✨第7站：潮汕 深圳出发，周末 2 天 1 夜，高铁 1 个半小时到，两天人均 731元，建议先点赞收藏噢！ 	 具体攻略如下： 	 1️⃣深圳怎么去？ 周六 🚄D2294 深圳北站 —— 潮汕站 08:12——09:59 周日 🚄D9718 汕头站 —— 深圳北站 19:16——21:36 	 2️⃣住宿：在潮汕住哪里？ 汕头小公园附近，主打一个舒适性价比，维也*纳 	 3️⃣潮汕两天一夜怎么走？ 	 🔶Day1：潮州 牌坊街（吃逛） ➡️开元寺 ➡️广济楼 ➡️广济桥 ➡️韩文公祠➡️西马路（都在一块可步行）➡️18:00 顺风车去汕头（1 h），东市白粥用餐➡️回酒店 	 🔶Day2：汕头 自然醒➡️龙眼南路美食➡️ 汕头小公园 ➡️汕头旅社➡️十二中美食街 ➡️西堤公园 ➡️18：00潮人码头看日落🌄 	 4️⃣美食推荐： 	 潮州 甘草水果、咸水粿、糖葱薄饼、长平肠粉、同福砂锅粥、东市白粥、永逸豆浆、一杯潮茶 	 汕头 广场老牌豆花甜汤、阿猴牛肉火锅，杏花吴记（需预约） 十二中美食街（十二中草莓冰 ，跃进里腐乳鸡翅，伟顺反沙店（芋头番薯咸蛋黄），棉城鲎果 	 5️⃣❗️真实感受划重点 	 📍潮州 	 ✨牌坊街：全长 1948 米，有中式明清牌坊和错落的骑楼 	 ✨开元寺：位于牌坊街里，红墙与古寺，别有一番风味📷 	 ✨广济楼 + 广济桥：牌坊街的一头是广济楼，穿过去是广济桥，中国四大古桥之一，门票 20，人比较多，旁晚会拆桥 	 ✨韩文公祠：过了广济桥抵达，最早纪念韩愈的公祠，内部有一些碑文书法观赏，其他没啥，然后沿着石阶可以俯瞰潮州 	 ✨西马路：打车回牌坊街，可以去到西马路和义安路，童年小吃街 	 📍汕头 	 ✨12:00 龙眼南路 本地美食街，有很多好吃的，有点像长沙😂肠胃还不错的宝子可以尝试生腌 	 ✨14:30 汕头小公园 集美食与潮汕文化于一体，热门景点都在这片，游玩顺序： 	 📍汕头旅社 - 汕头邮局 - 开埠文化馆 - temp coffee - 百货大楼 - 中山纪念亭 - 老妈宫戏台 （时间充裕小伙伴阔以沿着这条路线，因为时间问题，下次有机会再来打卡完） 	 ✨16：30 十二中美食街 位于学校门口的美食聚集地！ 	 ✨17：30 西堤公园-潮人码头 看日落🌄 	 #暑期旅游#深圳周末去哪儿#深圳周边游#夏日出游#潮汕美食#潮汕旅游攻略#汕头#潮州#周末去哪玩#汕头小公园@生活薯@薯队长@走走薯</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>1040g2sg314s0942mguc045j73a6a9si9i788cg8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>《潮州两天一晚》特种兵不绕路保姆级攻略！</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>【具体行程】 day1 牌坊街➡️开元寺➡️广济楼➡️广济桥➡️镇海楼➡️西马路 day2 西湖公园➡️青龙古庙➡️泰佛殿➡️韩文公祠➡慧如公园➡️️龙湖古寨 【关于美食】 必打卡的美食：牛肉火锅、肠粉、砂锅粥、虾枣、糯米糍、潮州菜等等 【关于景点】 1⃣️牌坊街：免费，全天开放，一条很有特色的古文化街，位于古城中心，传统小吃比较多 2⃣️开元寺：有粤东第一古刹之称，结合了不同的建筑风格，门口可以领三炷香 3⃣️广济楼：免费全天开放，潮州地标性建筑，古色古香的城楼，晚上夜景更好看 4⃣️广济桥：就在广济楼旁边，参观免费，过桥20r，晚上有灯光秀 5⃣️镇海楼：“潮州城府”，潮州地标建筑之一 6⃣️西马路：全天开放，店铺很多，潮州特色小吃聚集地 7⃣️西湖公园：市区内的一处自然景观，公园不大景色很美 8⃣️慧如公园：就在青龙古庙对面，可以一起打卡 9⃣️青龙古庙：避开人群的喧杂，全天开放，免费，建议晚上去 1⃣️0⃣️泰佛殿：潮州版泰国皇宫，在潮州就能领略泰国风情 1⃣️1⃣️韩文公祠：为了纪念韩愈修建的祠宇，需要提前预约，免费参观周一闭馆 1⃣️2⃣️龙湖古寨：广州十大最美古村落，见证了潮汕地区的历史变迁 【避坑指南】 1⃣️潮州景点集中,可以选择步行,会走很多路，千万不要穿高跟鞋 2⃣️牌坊街、西马路、义安路、昌黎路等等几条街是连起来的可以慢慢逛 3⃣️出高铁站的时候会有很多司机拉客,千万不要被欺骗了，不要坐机场、高铁站门口的黑车，很容易被宰 4⃣️潮汕只有一个揭阳国际机场,机场不大,进站和出站都很好找 5⃣️肠胃不好的小伙伴第一次吃生腌千万不要贪吃，也不要空腹吃,吃之前可以吃点其他东西打底 6⃣️在潮州骑共享电动最方便，自驾容易堵车和难找车位!远的地方叫车! 7⃣️广济楼广济桥是连在一起的!广济桥下午5点停止售票，下午5:30开始拆船，可以在江边提前占好位置看拆桥! #潮州攻略 #潮州 #潮州美食 #潮州旅游 #潮州旅行 #潮州旅游必打卡 #游玩攻略</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>1040g2sg3180nm3dk0s9g49q330drfihffkijh3g!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>沉醉于潮汕，吹吹广济楼的风，逛一逛牌坊街</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>来潮州大家要来打卡的地方！潮州这座城市是非常具有烟火气的。 	 📍牌坊街 门票🎫：免费   （全天开放） 23座牌坊诉说了当年的丰功伟绩，沿街有各式各样的店铺，晚上亮灯后的夜景和白天截然不同 	 📍开元寺 门票🎫：免费   （7:00-17:00开放） 寺内处处布景都很幽美，有着故宫同款的红墙金瓦，还能打卡“缘来开元”红墙点 	 📍广济楼 门票🎫：登楼免费，进楼10  （全天） 广济楼也称韩江楼，夜晚灯亮起的时候夜色特别好看，站在城楼上拍照很出片。 	 📍广济桥 门票🎫：20（10:00-17:30,17:00停止入场） 中国四大名桥之一，每天五点会上演“过河拆桥”的画面，想看的可以提前蹲点去 	 📍韩文公祠 门票🎫：免费   （8:30-17:00，需预约，周一闭馆，法定节假日除外） 背靠韩山，面临韩江，在这里还能清楚俯瞰广济桥，了解韩愈历史 	 📍泰佛殿 门票🎫：免费     （7:00-17:00） 随便一个角落都很出片，潮汕是中国距离泰国zui近的一个城市，不出国就能体验独特的异国风情，如果想租衣服的话记得对比质量和价格。 	 📍潮州西湖 门票🎫：免费      （6:00-22:00） 微风拂面一边欣赏湖边的美景，一边感受宁静与惬意，非常的放松心情 	 📍广济桥灯光秀 门票🎫：免费      （20:00开放，节假日多加21:30一场） 	 📍颐园 门票🎫：8元     （9:00-17:30，17:00停止入场） 有多余的时间一定去看看，潮州zui美的园林，可以穿上汉服，拉上三五好友结伴同行，留下一些满意的合照~ 	 #潮州旅行  #潮州  #广济桥  #广济楼  #韩文公祠  #牌坊街  #旅游  #在路上</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>1040g34o3168voihm0m0g5p7aur6gaec9hsdo4do!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>5刷潮汕❗️总结的潮汕3️⃣日特种兵攻略✔️</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>潮汕的古城➕美食➕海景，太适合假期出游了！去过5次潮汕，熬夜整理这篇攻略📖，带你轻松get 潮州&amp;汕头景点美食，跟着走就对啦❗️ 我是雪梨，持续分享广州及周边城市旅行干货攻略，快来一起地球漫步吧 ㅤ 🚗交通 🚄高铁 汕头：潮州→汕头站 约3h；或到汕头南站 约2h 潮州：汕头站→潮州站 20分钟 ✈️飞机 揭阳潮汕国际机场，打车去汕头市区45分钟，去潮州市区约30分钟 ㅤ 🗺路线 Day1⃣：汕头市区 汕头市博物馆—中山公园—龙眼路美食街—石炮台公园—广场轮渡—小公园—汕头旅社—西堤公园 Day2⃣：南澳岛 长尾山灯塔—钱澳湾灯塔—天域山庄—宋井—三囱崖灯塔—北回归线广场—金银岛—2号公路—总兵府—孤独的树—北回归线网红打卡线 Day3⃣：潮州古城 北阁佛灯—许驸马府—镇海楼—开元寺—牌坊街—广济楼—泰佛殿—韩文公祠 ㅤ 🏠住宿 如果不想频繁换酒店，建议都住在汕头市区，去南澳岛/潮州可以当天回酒店，结束后从汕头返回广州 如果想住一晚南澳岛🌙，可选青澳镇/后宅镇，吃喝出行都方便 ㅤ 💡Tips 1⃣汕头和潮州景点相对集中，步行共享单车/打车就可以 2⃣南澳岛景点比较分散，建议自驾/包车/租电动车，环岛一圈62.6km 3⃣建议傍晚去逛汕头广场轮渡/西堤公园，有机会看到海上日落🌅 4⃣潮州广济桥晚上有灯光秀，周一-周四20:00，周五-周日20:00 &amp; 21:30 	 #你要去观世界才会有世界观#旅游#旅行#潮汕#春游记#找个小城慢慢逛#五一怎么办#五一不扎堆指南#潮州旅行#汕头旅行#南澳岛攻略#潮汕旅游#潮汕旅行#汕头旅游攻略#潮州旅游攻略#广州周边游#深圳周边游</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>1040g008311dn7mfa6o504053hoaiu0e6rukr6ug!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>第一次去潮州‼️请直接复制这条一日游路线</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>. #潮州 世界美食之都、国家历史文化名城 本篇分享·潮州一日·2⃣1⃣个景点·深度漫游攻略 . 🗺以下景点按游览先后顺序介绍，位置参考图2 🛵潮州市区可骑共享电动车代步 ⛅️上午 1⃣西新早市：超接地气的美食老街，早餐必去‼️西新油饼店、山泉咸水粿、老胡粽球、玉记猪脚圈......全是老字号，盲吃不踩雷 2⃣潮州西湖公园：1200多历史，东门口可拍“钱来钱来”同款网红机位 3⃣许驸马府💰20：国保，始建于宋代，是潮州现存最早且国内罕见的“府第式”民居 4⃣海阳县儒学宫💰10：省保，始建于南宋，内有保留完好的明代大成殿，为“潮州古城三宝”之一 5⃣潮州镇海楼：始建于明代，为潮州古城府楼 6⃣己略黄公祠💰10：清代二进院，雕塑品超精致，集潮州传统工艺之大成，堪称潮州木雕之典范 . ☀️中午 7⃣西马路：著名美食老街，午餐推荐‼️伟记小食店—糯米猪肠、永记小食店—咸蛋黄卷、糖葱薄饼、老四麦粿、十八曲鱼饺……全是口碑老店 8⃣开元寺：国保，始建于唐代，为庞大的四合院式建筑群，是“粤东第一古刹”和岭东佛学院所在地，有“百万人家福地，三千世界丛林”之美誉 . 🌤下午 9⃣甲第巷：著名历史街巷，有数十座明清宅院 🔟牌坊街：22座中式明清石牌坊、中西合璧式的骑楼特色建筑，有很多非物质文化遗产和特色美食坐落其中 1⃣1⃣颐园💰8：也叫饶宗颐学术馆，集苏州园林与潮汕民居于一体，非常出片 1⃣2⃣广济楼：始建于明代，是潮州古城的主要标志，为宫殿式三层歇山顶阁楼，蔚为壮观 1⃣3⃣广济桥💰20：国保，始建于南宋，为中国四大古桥之一，被誉为“世界上最早的启闭式桥梁” 1⃣4⃣韩文公祠：国保，始建于北宋，是我国现存最早纪念唐代文学家韩愈的祠宇，登顶可俯瞰韩江两岸 1⃣5⃣开元寺泰佛殿：仿泰国云石寺构建，异国风情满满，拍照出片 1⃣6⃣涸溪码头公园：拍摄潮州“古今同框”三件套 1⃣7⃣凤凰洲公园：潮州旧八景“凤凰时雨”所在地，可远眺广济桥，看日落绝美🌅 . 🌙晚上 1⃣8⃣青龙古寺：始建于北宋，潮绣、嵌瓷、木雕为三绝，超级精致 1⃣9⃣南门古夜市：潮州特色小吃街，晚餐首选‼️阿灿鸡煲、溪口鹅肉、南春炒粿条、晏式酥饼都很赞 2⃣0⃣韩滨园：小区九楼可拍牌坊街夜景🌃 2⃣1⃣广济桥灯光秀：工作日20：00，周末20：00、21：30，从“下水门城楼”旁观赏最佳 #周末去哪儿#潮州旅行#潮州美食#不辜负每个周末#冬日旅行收藏夹#潮州探店</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>1040g00831akim94jn24g5nh0hbig8ldqvtahi6o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>刚从潮汕回来，说点大实话，建议看完再去‼️</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>一开始来潮汕确实是冲着吃来的 但24年的潮汕之行，让我重新认识了她 这里的年味，人民的热情，对传统文化的坚守，感动的我热泪盈眶。去过200多座城市的我很负责任的说，这里就是年味最足的城市了，没有之一 - 你一句真上头，我就到了真汕头。 在小公园的人群中喝着正宗的潮茶 被热血沸腾的“中华战舞”英歌舞感染 看着太阳慢慢落下把水面染成了橘子海～ - 当然，潮汕潮汕，可不只有汕头。 到了潮汕，你总要来趟潮州吧～ 来看看“过河拆桥”的广济桥 看看那规模最大的牌坊街 再吃一顿热气腾腾的砂锅粥和牛肉火锅 - 👉如何玩❓ 潮汕2️⃣天1️⃣夜旅行路线： Day1 汕头非遗传承之旅 天主堂-存心善堂-观音庙-小公园-后溪村/凤岗村英歌舞等表演 - Day2 潮州古城citywalk 青龙古庙-广济桥-广济楼-牌坊街-开元寺-镇海楼-广济楼夜景 - 👉去哪拍❓ 1⃣️观音庙：全国最热闹的屋顶就在这里了，中国古典文学被匠人雕刻在这里，精美绝伦。 - 2⃣️小公园：这里的楼都很港风，在kcoffee二楼可拍到小公园窗景经典几位 - 3️⃣英歌舞：英歌舞整个正月里都有，大家去之前可以先查好哪个村开始巡游！ - 4️⃣广济桥：过河拆桥的原型，有一段是用连锁的船进行连接的，日落时分会拆除 - 5️⃣青龙古庙：可以来此求灵qian，据说非常灵～ - 6️⃣潮州古城：古城夜景很美，牌坊街用长焦拍非常绝 - 👉怎么去❓ 潮汕有高铁站，也可以直接飞过来。潮汕主要分汕头、潮州和揭阳三个地方，不同地方都有不同的车站，如果有车的话自驾会比较方便。 - 听说小红书上了个内测功能，能看到笔记下方「好」字的人，同时觉得我的这期的笔记很不错，就快来给我点个好吧！感谢大家～ #我的私藏旅行路线#小红书视频好有意思@视频薯#潮州旅行#潮州旅游#潮州拍照#潮州古城#汕头#汕头旅行#英歌舞#潮汕旅行#潮汕英歌舞#非遗#潮州旅游攻略#广东周边游#大家的春节#春节拍照攻略#我的春节这样过#捕捉身边的年味#春节去哪儿#新年旅行#年味正浓状态正好</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>1040g00830vm7ko7162505nveee2091vgldiju70!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>潮汕旅游三日游超详细攻略</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>😁计划来潮汕的宝子一定要看，潮汕本地人整理的潮汕保姆级旅游攻略 	 游玩路线安排 	 汕头：汕头小公园→开埠文化陈列馆→汕头旅社→西提公园→广场轮渡 	 南澳岛：长尾山灯塔→后宅镇→自然之门→蛴仔澎风车山→彩虹海 	 潮州：韩文公祠→泰佛殿→开元寺→牌坊街→广济桥灯光秀 #每天写一篇旅游攻略#旅游攻略#潮汕#周末去哪玩#人文景点分享#潮州旅行#汕头旅行#潮州#汕头#南澳岛</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>1040g00831agg6tq5n21g5pjd7411onm7fajokdo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>理工男朋友做的潮州地图🗺️实用分享❤️</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>#潮州旅游攻略 #潮州旅游#潮州旅行攻略 #潮州美食推荐#潮州攻略#潮州牌坊街#潮州避雷指南 @生活薯 #潮州景点#潮州古城旅游攻略 #潮州旅行 #潮州旅游 #牌坊街美食 #牌坊街 #广济桥 #广济楼 #潮州打卡 #潮州小吃 #潮州海鲜 #潮州伴手礼 #潮州特产 #潮州手信 #潮州拍照 #潮州景点 #潮州烧烤 #潮州下午茶 #潮州早餐 #潮州餐厅#潮州住宿 #五一潮州  #五一去哪儿 #旅游攻略#潮州开元寺#韩文公祠 #潮州旅游@户外薯@户外薯@小红书成长笔记#潮州建议 #潮州避雷 #潮州路线 #潮州周边游 #小众旅行地  #暑假潮州旅游攻略 @薯队长#国庆我要慢慢玩#国庆哪里人少#国庆冷门路线#大城市里的小景点#便宜又好玩的国家#国庆遛娃好去处#国庆自驾不堵车#旅途中的美景#国庆逛吃日记#每天写一篇旅游攻略</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>1040g008318lk957tk4105oemuuv40i3kb17i6s0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>揭阳一日游city walk路线！懒人可以直接照</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>潮汕有座低调的城市叫做揭阳，我们可以在这里感受老城的烟火气，也可以品尝到地道的潮汕美食~ 如果你想来揭阳一日游，建议你可以复制这条线路哟~ 🚶游玩路线：进贤门→揭阳学宫→城隍庙→中山路→青狮文化旅游景区→打铜街、石狮桥→双峰寺→进贤门 1⃣进贤门 进贤门是揭阳的标志性建筑，来了揭阳总是要去打个卡吧~ 我们可以以这里为起点开启揭阳之旅~ 进贤门夜晚亮灯的时候挺好看的，等到夜晚也可以来看看 🎫门票：免费 📍地址：揭阳市榕城区进贤门大道(百货大楼旁) · 2⃣揭阳学宫 这是揭阳古代的最高学府，距今已经有800多年历史了，也是岭南地区规模最大、保存最完整的同类历史建筑组群，具有很高的历史文化价值。拍照也很好看 🎫门票：免费 🕰开放时间：周二至周五09:00-11:45(11:30后停止入馆),14:30-17:30 (17:00后停止入馆)，周六至周日09:00-17:00(16:30后停止入馆)，逢周一闭馆，法定节假日另行通知 📍地址：揭阳市榕城区韩祠路7号 · 3⃣城隍庙 庙宇间升腾起了香火，这是潮汕人民的信仰。来到这里我们也可以抬头看看屋顶，你也许会被屋檐的雕饰惊艳 🎫门票：免费 🕰开放时间：08:30-11:30,14:30-17:30 📍地址：揭阳市榕城区中山路谢家围15号 · 4⃣中山路 这里有林立的骑楼群，现在正在修葺，不知道会变成什么样子呢 · 5⃣青狮文化旅游景区 榕城舞“青狮”至今已有三百多年的历史，在这里我们可以了解到青狮文化，如果幸运的话还可以在这边遇到他们正在舞青狮，我就遇到过两次 📍地址：揭阳市榕城区望江北路42号 · 6⃣打铜街—石狮桥 我们可以在这里感受老城的质朴韵味。老板不紧不慢接待三三两两的客户，和邻居好友喝茶话家常。电影《给阿嫲的情书》前段时间也在这里取景拍摄哦~ 还可以去石狮桥摸石狮 “摸狮头，上等贤” “摸狮耳，生阿弟” “摸狮鼻，写雅字” “摸狮肚，娶雅亩” “摸中间，嫁好安” “摸狮嘴，大富贵” “摸狮脚，有钱担” “摸狮尾，好结果” · 7⃣双峰寺 双峰寺跟潮州开元寺、潮阳云山寺并称“潮汕三大名刹”。近期扩建重修后，突然火起来了，很多本地人来打卡。夜幕降临后，双峰寺灯光璀璨、金碧辉煌、美轮美奂~ 如果你想去看进贤门夜景，在双峰寺参观后，可以直接走到进贤门~ · 在揭阳的市区，还是很适合来一场citywalk的。 如果你有更多的时间，还可以去揭西看瀑布、泡温泉，去惠来看海~ #不辜负每个周末#揭阳#深圳周边游#周末去哪儿#揭阳游玩</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>1040g2sg319tbsk3m7a7g4a67ejc0r27pumd61d0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>南澳岛已回😭真心建议11-12月想去的。。</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>本篇文章只有3个重点💫人少❗钱少❗➕玩得好❗准备好咱们就出发吧💃 	 南澳岛景点推荐🏖 📍「南奥大桥」长达10km的跨海大桥，把天和海隔成了两个区域，海天通色风景令人流连忘返！ 📍「长山尾灯塔」背靠大桥的红色灯塔，也是观看日落的绝佳位置 📍「最美沿海公路」长山尾灯塔到钱澳湾灯塔这一段就是最美环岛公路，只要是晴天，分分钟打卡垦丁公路 📍「田仔地质公园」岛内唯一的大型礁石公园，适合吹海风看日落，还可以拍很酷的照片！ 📍「钱澳灯塔」平台下方可以拍到礁石与灯塔，小清新灯塔尤其阳光 📍「天域山庄」这里不是鼓浪屿，但也有清新文艺的漫画世界通向大海的道路🛣 📍「三囱崖灯塔」这座红白条纹，三囱崖除了自身美之外，处于最南端，有些天涯海角之美称 📍「风车山」漫山遍野的风车，缓缓转动，登上山顶有些半山半海的美景，像极了宫崎骏的童话世界 📍「青澳湾」海岸线绝美，沙滩上的沙子细腻柔软，海水很青很蓝，与自然之门标志塔相依💫 📍「森林公园」南澳岛的网红打卡地“北回归线地标”，门票20💰，人很多，需要排队拍照📸 📍「走马埔」除了“孤独的树”就是这片五彩斑斓的生蚝养殖基地 	 🍱美食推荐 【正餐】牛肉火锅、海鲜蒸汽火锅、小岛泰厨 【主食】炳忠粿条汤、海鲜沙茶面 【小吃】然孖生腌、成伯反沙店、文婶甘草水果、南澳岛果汁水、捷信甜品世家、然记甜水铺 	 🚗路线参考 白天上岛—长山尾灯塔➡钱澳湾灯塔➡海丝观景台➡前江湾海滩➡三囱崖灯塔➡北回归线标志塔➡青澳湾➡彩虹海➡九尖山观景平台看日落 	 🛏住宿📍一般都是住在【清澳湾】或【后宅】 	 ✔想在本岛的海边浴场玩水的话可以住「青澳湾」👉除此之外，建议大家「后宅」，位置方便很多！ 	 ⚠htip:一日游的环岛并不赶，环岛一圈只走必打卡景点，一日游拍照打卡是绰绰有余，有时间也可以安排两日游，会更深度，更休闲适合度假游玩～ #小众旅游#南澳岛#旅游攻略#游玩攻略#潮汕旅游#潮州#汕头</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>1040g2sg31a4sn868nad05p5jt0k46q4dqvq3h08!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>刚从汕头回来。。。踩过的雷我全部说一遍！！！</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>汕头虽然不大，但可以逛逛吃吃的地方有很多✅不做攻略真的会踩雷‼️ 作为本地人给大家整理了一份详细的汕头旅游攻略！希望大家不要踩雷走冤枉路‼️ #旅游攻略#本地人去哪玩#汕头#汕头打卡#汕头旅行#汕头探店#汕头旅游#汕头小公园#汕头吃喝玩乐#汕头旅游攻略</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>1040g2sg3154vjtt2gu5g5olhlmh6d743psu49r8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>😲潮州这九大旅游景点🎈，不看后悔✅</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>📸景点介绍： 1. ⛩️牌坊街（推荐指数：⭐⭐⭐⭐ ⭐️门票：免费）历史悠久，美食一条街可购买伴手礼，有很多牌坊和古建筑夜景超美； 	 2. 📜韩文公祠（推荐指数：⭐⭐⭐⭐ 门票：💰40）纪念韩愈的祠庙，文化底蕴深厚； 	 3. 🏞️淡浮院（推荐指数：⭐⭐⭐⭐ 门票：💰40 ）充满文化气息的地方，有很多珍贵的文物和艺术品； 	 4. 🛕开元寺（推荐指数：⭐⭐⭐⭐ 门票：免费）古老的佛教寺庙，不仅可以感受佛教文化的宁静与庄严欣赏到古建筑，还能品尝到各种美食； 	 5. 🌉广济桥（推荐指数：⭐⭐⭐⭐⭐ 门票：💰20 ）中国四大古桥之一，白天和晚上都有不同的景色，灯光秀非常精彩； 	 6. 🏯广济楼（推荐指数：⭐⭐⭐⭐ 门票：💰10 ）潮州的标志性建筑，可俯瞰古城风光； 	 7. 🕍泰佛殿（推荐指数：⭐⭐⭐⭐ 门票：免费）充满泰国风情的寺庙，适合拍照； 	 8. 🌳西湖公园（推荐指数：⭐⭐⭐ 门票：免费 ）休闲的好去处，有湖光山色和亭台楼阁； 	 9. 🎍颐园（推荐指数：⭐⭐⭐ 门票：💰8 ）小巧玲珑的园林，展示了潮州的传统文化； 	 🍱美食推荐： 1. 牛肉火锅🥘：潮州的特色美食，牛肉新鲜嫩滑； 2. 蚝烙🦪：外酥里嫩，蚝仔鲜美； 3. 肠粉🍜：口感爽滑，配上特制的酱汁和配菜； 4. 鸭母捻🍡：甜汤中的一种，有各种馅料可选； 5. 甘草水果🍈：新鲜水果加上甘草汁，酸甜可口； 6. 春饼🌯：薄饼包着各种馅料，香脆可口； 7. 糖葱薄饼🧇：甜而不腻，有浓郁的葱香味； 8. 麦粿🥞：麦香十足，有多种口味； 	 🚌路线交通指导： 1. 潮州的交通比较便利，可以选择公交车、出租车或共享单车； 2. 购买一张潮州通公交卡，可以方便地乘坐公交车； 3. 如果你想自由行，可以租一辆电动车或自行车； 	 🏨住宿推荐： 1. 牌坊街附近：方便游玩和品尝美食，有很多特色客栈和酒店； 2. 市中心：价格相对较低，交通便利； 3. 韩江边：可以欣赏到江景，环境优美； 	 🌅快来潮州感受这座历史文化名城的魅力吧～ 	 #潮州旅行#寻个小城过端午#最全旅游攻略#地方特色美食#一眼千年潮越古今#人文景点分享#网红拍照必去景点</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>1040g2sg319pfdqkp7c705neihufg9d12tqrc86g!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>才回来没几天，又想去潮州古城胡吃海喝了‼️</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Hi～我是李万一。上上个月来了潮州之后，才Get到新知识：潮汕是潮州，汕头和揭阳的合称。这几天又想去了，吃的爽，玩的好，看的美。感觉潮州古城真是被严重低估的Bao藏小城，吃喝玩乐都集中在一起，哪怕只在古城里待一整天，你也能沉浸式感受这座千年宝藏古城。 	 ❤️跟着下面路线走，1️⃣天9️⃣景1️⃣3️⃣餐都没问题！ 	 ✅【Citywalk路线】 潮州博物馆(可不去)➡️潮州西湖(步行10分钟到)➡️潮州西马路➡️开元寺➡️广济楼➡️广济桥➡️韩文公祠➡️下水门城楼➡️古城牌坊街 	 🔶广济桥：现实版“过河拆桥”，中国四大古桥之一，启闭式浮桥，18艘古船横跨韩江，白天搭桥、晚上拆桥，开开合合千年，桥前就是广济楼。 🔶广济楼：登楼俯瞰整个古城 🔶牌坊街：追溯到明清的街巷，二十二座为历代进士 状Yuan设立的牌坊，连接着五十一条骑楼街。 🔶开元寺：建筑艺术很值得看！因为潮汕的嵌瓷文化让屋脊上龙飞凤舞 🔶西马路：这里有很多潮汕地道小吃 🔶打银街：是本地人住的地方，很有生活的气息 🔶潮州西湖：置身于湖光山色的惬意之中，绿意盎然的树好像走进了童话世界里！ 	 ✅【可以不逛，但不能不吃❗️】 🔶各种肠粉 🔶各类牛肉火锅 🔶咖啡，油柑汁 🔶生腌 🔶腐乳鸡翅 🔶裸条 🔶葱糖薄饼 🔶海鲜砂锅粥 	 ✅住宿 略 	 ✅注意事项 ❗️广济桥开合有时间，且并不是每天都有 ❗️古城内不能骑小电驴 ❗️吃生腌请慎重 ❗️古城物价不算很低 	 ✅求助友友 还有什么我没发现的宝藏的打卡地，或好吃好玩的请在评论区告诉我～期待～ 	 #冬日旅行收藏夹#在20度的海边过冬天#被低估的宝藏小城#citywalk#不辜负每个周末#潮州旅行#潮州#小众旅行地#潮州古城#潮州古城牌坊街 @生活薯 @薯条小助手</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>1040g00831agj8pe7n21g5pkgkivjulvr8ovg71g!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>🔥三刷汕头了‼️懒人版超详细不走回头路攻略</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>🌟汕头真的适合放假CityWalk‼️超chill的旅游城市，有时间一定要来汕头打卡～还有超级多好吃的等着你们🥰 	 📌【交通】： 🚄坐从高铁深圳北站—汕头站（耗时2h19min）➡️打车🚗去市区（耗时20多min） ➡️老城区：市区出行骑小电驴🛵很方便‼️ ➡️南澳岛：建议开车🚗比较方便 	 📌【3天2夜行程安排】： Day1️⃣～ 汕头站—汕头小公园—宫戏台—邮政总局—开埠文化陈列馆—汕头旅社—西提公园—龙眼路 Day2️⃣～ 进岛—长山尾灯塔—田仔质地公园—钱澳湾灯塔—海丝广场—前江湾沙滩公园—葫芦山 Day3️⃣～ 三囱崖灯塔—青澳湾沙滩—自然之门—2号公路—孤独的树—北回归线—汕头站 	 📌【美食打卡】： ✅春梅里鹅肉：💰70+ 老字号鹅肉店，装修具有潮汕特色，卤水拼盘每桌必点‼️鹅肉香而不腻，鹅肝软绵香嫩，入口即化🥰 ✅方记洪顺牛肉火锅：💰80+ 🥩肉质看得见的新鲜，牛骨汤底鲜甜🍲推荐吊龙、五花趾、匙仁、胸口油，湿炒粿条也是必点👏 ✅物碗粥：💰60+ 有白粥配生腌，也有海鲜粥，海鲜粥份量很大很鲜，爆炒鹅肠必点👋很脆口🔥 ✅三姐妹肠粉：💰10+ 很多本地人来吃，🐂牛肉肠粉份量大，牛肉很嫩，肠粉皮薄爽滑👏还得是潮汕肠粉最好吃‼️ ✅潮汕四点金：💰40+ 吃点白粥再吃生腌，生腌膏蟹满满，冰淇淋一样的口感，生腌生蚝🦪超肥美‼️ ✅鮀茶堂：💰20 汕头特色必喝茶饮‼️点了三江情浓，茶味浓郁醇厚👍还有黑糖珍珠厚鲜乳，不能喝甜的一定要少糖🔥 ✅老山合：💰60+ 每次去都要买！特色猪头棕，就像厚切的猪肉脯🥓，很香很有嚼劲～ ✅ 潮物集：💰20+ 潮汕红桃粿衍生出的ip胖桃文创店，文创产品很全，有冰箱贴，明信片等💗 	 📌【老城区推荐景点⛰️】： ✅汕头小公园：晚上有灯光更有氛围🏮 ✅邮政总局：欧陆式建筑，有明信片可以寄 ✅汕头旅社：“汕头”二字打卡地标‼️ ✅西提公园：直接从小公园走过去，可以看海边日落🌅，还有礐石大桥🌁 ✅龙眼南路：🔥网红美食街，很多好吃的店都集合在这条街上👏👏 	 📌【南澳岛推荐景点⛰️】： ✅长尾山&amp;钱澳湾&amp;三囱崖灯塔：很出片的拍照打卡点！📷远拍更好看～ ✅2号公路：森林公路🛣️，拍照好看🌟 	 #汕头美食攻略#小公园美食#周末去哪儿#潮汕美食#汕头小公园#南澳岛攻略</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>1040g2sg317u7fm1k468g5o13tht0980taqpsdso!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>潮汕12月旅游全攻略</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>12月去潮汕真的太适合啦！ 不热不冷的天气，简直是为旅行量身定制！ 今天就给你们带来一份超详细的潮汕旅游攻略，第一次来潮汕的宝子们，赶紧收藏起来哦！📝 	 🌟 ‌潮汕经典打卡景点‌ 🌟 🏰 ‌潮州古城‌：牌坊街、开元寺、广济桥，仿佛走进了一座活着的“千年古城”！每一步都充满了历史的厚重感。 🏙️ ‌汕头老城‌：复古骑楼建筑，让人一秒穿越回30年代！还有超多美食小吃，吃货们绝对不能错过！ 🏝️ ‌南澳岛‌：灯塔、沙滩、日落，简直是放松身心的绝佳去处！在这里，你可以尽情享受海岛的宁静与美丽。 🍴 ‌潮汕美食‌：南澳岛上美食虽然少，但潮州跟汕头比起来，汕头的美食小吃种类更多哦！牛肉火锅、官塘鱼生、砂锅粥...想想都流口水啦！ 	 🚗 ‌路线参考‌ 🚗 1️⃣ ‌汕头‌：潮汕博物馆→广场轮渡→老市区小公园→汕头旅社→存心公馆→龙眼路美食街 2️⃣ ‌南澳岛‌：南澳大桥→长山尾灯塔→田仔地质公园→钱澳灯塔→后宅镇美食打卡→三囱崖灯塔→风车山→青澳湾沙滩→走马埔→森林公园·北回归地标 3️⃣ ‌潮州‌：龙湖古寨→泰佛殿→韩文公祠→广济桥→牌坊街→开元寺→西湖公园 	 🚌 ‌交通方式‌ 🚌 潮汕的景点和美食店真的很多，而且景区之间相隔较远，自由行或自驾游可能会有点不方便哦！🤔 所以我更推荐报个团游，省心又省力！导游会带你去当地有名的餐馆，品尝正宗的潮汕美食，还会带你游览潮汕的古街古巷，让你尽情拍照打卡！📸 	 🍽️ ‌推荐美食打卡‌ 🍽️ 【正餐】：牛肉火锅、官塘鱼生、砂锅粥、卤水火锅、海鲜蒸汽火锅 【主食】：牛杂/海鲜粿条汤、隆江猪脚饭、粿汁、肠粉、卤鹅饭 【小吃】：潮汕生腌、反沙芋头、甘草水果、果汁冰、甜汤、水晶粿、鳖粿、糖葱薄饼 	 潮汕的美食和美景绝对让人流连忘返！🎑 无论是古城的韵味还是海岛的风情，都能让你找到属于自己的那份宁静与美好！💖 所以啦，12月来潮汕旅游，真的不要错过哦！🎉 ﻿#潮汕﻿ ﻿#潮州古城﻿ ﻿#南澳大桥﻿ ﻿#南澳岛﻿ ﻿#钱澳湾灯塔﻿ ﻿#牌坊街﻿ ﻿#汕头老城﻿ ﻿#开元寺﻿ ﻿#青澳湾沙滩﻿ ﻿#北回归线地标﻿</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>1040g0k031amrifn06o005p9jp8a114343ne4vn0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>避坑潮州汕头路线选择</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>潮汕🌟|潮州+汕头，2天1晚周末游超全攻略！|||✅Day1:潮州（一桥一楼一街） 🌟|游玩路线： 韩文公祠→泰佛殿→潮州古城（牌坊街→广济桥→广济楼→颐园→开元寺→西马路→镇海楼→许驸马府→潮州西湖公园）→北堤夜市/潮食汇 🛤️|景点特色： 🔸韩文公祠：纪念唐宋八大家-韩愈建的公祠，依山傍水，古朴典雅 🔸泰佛殿：泰式风格建筑，门口可租衣服拍泰式照 🔸牌坊街：潮州古城的一条主街，有22座风格各异的牌坊，两边有众多特色美食，街口对面有南门市场，可以去买本地人吃的牛肉丸等特产 🔸广济桥：每晚8点有灯光秀很震撼，周五六日九点半会加1次，门票20 🔸颐园：潮州最美园林，拍新中式写真很出片，门票8 🔸开元寺：门口可以领3根贡香拜拜，可以求福袋手串，8点半左右开始，请完即止 🔸西马路：潮州地道小吃街，烟火气十足，很多必打卡美食：惠来绿豆饼、吴进平小食、甘草世家、糖葱薄饼 🔸镇海楼：大卡“潮州城府”，适合拍汉服写真，亮灯时间：18:00-23:00 🔸许驸马府：是一座宋代府第，现存最早的“府第式”民居，门票20 🔸西湖公园：众多亭宇，古香古色，可以划船散步，逛完可以去门口喝个芝麻茶 🔸北堤夜市（导航北关集市）：人多热闹，各种小吃摊，可以吹海边晚风 ✅Day2:汕头（百年商埠，海滨邹鲁，美食之乡） 🌟|游玩路线： 小公园→老妈宫戏台→汕头旅社→镇邦美食街→西堤公园→潮人码头→广场轮渡→礐石风景区→潮博馆 🛤️|景点特色： 🔸小公园：众多南洋骑楼建筑，是汕头老城的核心地标和文化标志，文艺感满满 🔸老妈宫戏台：中西合璧+潮汕独特建筑特色，一睹曾经的繁华，有很强的参观价值 🔸汕头旅社：门头“汕头旅社”四个大字，网红打卡点 🔸镇邦美食街：各种潮汕小吃 🔸西堤公园：是赏落日的绝佳之地，馥园建筑很民国风 🔸广场轮渡：傍晚去坐1元轮渡，海上追逐日落，游览汕头内海湾 🔸礐石风景区：山顶观景台飘然亭，可以俯览汕头全景 🔸潮博馆：背靠礐石风景区的笔架山，面向汕头内海湾，是潮汕历史文化博览园的核心建筑</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>1040g008314mtjuoom8305pjmi16gud9vfa7f36g!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>潮州</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>吹到迷糊的冷风 刚刚好的日落 迷路的野猫 快乐的退休大爷 拼拼凑凑的生活图片又完完整整#潮州#牌坊街#广济桥#潮州#揭阳</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>1040g00830rqvupgt2m0g5nu4i5a095hcelogur8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>特种兵→汕头→南澳岛2天一夜逛吃旅游攻略</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>🌸你一句上头 我就来了真汕头 🌸把想去很久的地方，变成走过的路，真的是一件很酷的事情～ 	 ‼️我的旅游路线 🌸Day1:汕头小公园✅汕头旅社✅西缇公园✅ 🌸Day2:南澳岛✅ 四海打卡点-北回归线-竹肚栖湾（看日出）-天域山庄-长山尾灯塔（日落）-南澳大桥（还有很多打卡点，时间充足都可以去看看哈） 	 ‼️汕头小公园：传统的潮汕建筑和骑楼交汇。晚上更有氛围感，走在霓虹灯下的街上，烟火气息扑面而来～ 	 🌟汕头旅行社：网红“汕头”两个字的拍照打卡点，我是避开节假日的时候去，没什么人很安静，超好拍的。 📍灿兴百货门口 	 🌟西缇公园：位于海边，这里有轮渡码头和日落🌄，傍晚时分真的很浪漫～ 	 🌟南澳岛：可以租个小电驴逛（40一天） 	 ‼️美食推荐：（口味因人而异哈） 📍创新土鸡火锅（错峰不用排队，份量很足，肉不柴，口感细腻鲜美） 📍东市白粥 两个人点了一碗海鲜粥，就真的很满足 📍正井上茶：喝一杯潮茶吧，出他们家斜对面就是汕头旅社啦，刚好可以拍照打卡 	 📍橄榄面也可尝试一下哈（料很多，满满一碗都是海鲜和肉，位置在南澳岛后宅镇，店内就叫橄榄面） 📍杏花吴记牛肉锅（离汕头小公园1.9公里，肉质细嫩） 📍陈多花清补凉（性价比高，料很多） 📍阿武食店 我也超爱的 	 大家记得看好天气出门哈，祝大家旅途愉快呀～ 	 #跟风最成功的一次#城市中的烟火气#城市摄影#拍拍身边烟火气#人文景点分享#游玩攻略#汕头旅行#汕头#汕头旅游#潮汕旅游#小众旅行地#广东周边游攻略#周末去哪儿#五一出游#五一#南澳岛攻略#南澳岛#南澳岛旅游#一起去看海#我的随手拍#深圳周边游#日落#日出</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>1040g2sg312dom6hf1k0g5nsqhllg8n5f6bak0lo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>去汕头6次熬夜整理的旅游攻略！我的建议是</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>#旅游攻略#游玩攻略#小众旅游#汕头旅行#汕头旅游#汕头小公园#汕头美食#汕头打卡#汕头吃喝玩乐#汕头旅游攻略</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>1040g008316uu33tdk63g4a609gkfr6un4h1bhag!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>避坑潮州汕头路线选择</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>潮汕🌟|潮州+汕头，2天1晚周末游超全攻略！|||✅Day1:潮州（一桥一楼一街） 🌟|游玩路线： 韩文公祠→泰佛殿→潮州古城（牌坊街→广济桥→广济楼→颐园→开元寺→西马路→镇海楼→许驸马府→潮州西湖公园）→北堤夜市/潮食汇 🛤️|景点特色： 🔸韩文公祠：纪念唐宋八大家-韩愈建的公祠，依山傍水，古朴典雅 🔸泰佛殿：泰式风格建筑，门口可租衣服拍泰式照 🔸牌坊街：潮州古城的一条主街，有22座风格各异的牌坊，两边有众多特色美食，街口对面有南门市场，可以去买本地人吃的牛肉丸等特产 🔸广济桥：每晚8点有灯光秀很震撼，周五六日九点半会加1次，门票20 🔸颐园：潮州最美园林，拍新中式写真很出片，门票8 🔸开元寺：门口可以领3根贡香拜拜，可以求福袋手串，8点半左右开始，请完即止 🔸西马路：潮州地道小吃街，烟火气十足，很多必打卡美食：惠来绿豆饼、吴进平小食、甘草世家、糖葱薄饼 🔸镇海楼：大卡“潮州城府”，适合拍汉服写真，亮灯时间：18:00-23:00 🔸许驸马府：是一座宋代府第，现存最早的“府第式”民居，门票20 🔸西湖公园：众多亭宇，古香古色，可以划船散步，逛完可以去门口喝个芝麻茶 🔸北堤夜市（导航北关集市）：人多热闹，各种小吃摊，可以吹海边晚风 ✅Day2:汕头（百年商埠，海滨邹鲁，美食之乡） 🌟|游玩路线： 小公园→老妈宫戏台→汕头旅社→镇邦美食街→西堤公园→潮人码头→广场轮渡→礐石风景区→潮博馆 🛤️|景点特色： 🔸小公园：众多南洋骑楼建筑，是汕头老城的核心地标和文化标志，文艺感满满 🔸老妈宫戏台：中西合璧+潮汕独特建筑特色，一睹曾经的繁华，有很强的参观价值 🔸汕头旅社：门头“汕头旅社”四个大字，网红打卡点 🔸镇邦美食街：各种潮汕小吃 🔸西堤公园：是赏落日的绝佳之地，馥园建筑很民国风 🔸广场轮渡：傍晚去坐1元轮渡，海上追逐日落，游览汕头内海湾 🔸礐石风景区：山顶观景台飘然亭，可以俯览汕头全景 🔸潮博馆：背靠礐石风景区的笔架山，面向汕头内海湾，是潮汕历史文化博览园的核心建筑</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>1040g008314mtjuoom8305pjmi16gud9vfa7f36g!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
         <is>
           <t>潮汕跟团已回 和领队的聊天记录（不删！ 家人们，我之前去潮汕玩了一趟，回来之后那感受啊，真的是一箩筐！今天必须得跟大家好好唠唠这次的潮汕跟团游。 先说说我对这团的真实评价哈。我报的是个潮汕本地的小团，是我一朋友之前跟过觉得不错推荐给我的。我本来怕踩坑，就自己去打听了一下，这一看，好家伙，各方面都挺靠谱。行程安排正合我意，价格也没超我预算，我这第一次跟团就没踩雷，可太幸运了。 再讲讲我报的这个小团具体咋样。它是纯玩的，这点特棒，就光玩，没那些乱七八糟的购物啥的。团友呢，都是跟我差不多年纪的，这是我提前跟领队说好了的，所以一路上大家都特能聊得来，没什么隔阂。这行程也自由，想走就走，想停就停，可舒服了。团费一千多块，包了住宿、门票、用车啥的，还有早饭。这一路下来，除了交那团费，就没再花过别的钱，我挺满意的。哦，对了，这团不包正餐，不过酒店有早餐，也还行。 报团还是自由行这个事儿呢，姐妹们得自己琢磨琢磨。潮汕这地儿有时候会下雨，路滑溜溜的，我觉着报团安全系数高些。而且潮汕的景点分得散，要是你攻略做得好，对当地交通熟，自驾也成。我是一个人出去，就选了跟团。 跟团体验嘛，我这第一次跟团旅游，感觉还真不错，没传说中那么可怕。不用自己费劲巴拉做攻略，也不用操心住哪儿，还能认识一帮新朋友，一路上嘻嘻哈哈的，可开心了。就有一点不太好，坐车时间长了屁股疼，虽说领队挺照顾人，我也准备了屁垫，可还是累得慌。不过呢，出来玩嘛，高兴就行。反正这趟潮汕之旅挺值的。不过我得跟大家说，要是你们也想跟团，一定得找那种有资质的，不然容易被坑。最后，祝大家出去玩都能顺顺利利，开开心心的！ 本次聊天记录已经过授权@潮汕旅游定制-辉仔#潮汕#潮汕旅游#潮汕跟团游推荐#潮汕旅游攻略</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>1040g00831amqgt757g4g5pnp8q8nc7aa65mtj20!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>潮汕非常震撼的小众景点❗揭阳古榕武庙</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>古榕武庙，又称北门关帝庙，占地面积1400平方米，建于明万历二十九年（1601年），历代均有重修。 古榕武庙坐北朝南，结构为三间三进四合院布局，分为前厅、中厅、拜亭以及正殿，中厅两侧走廊有人物瓷屏，拜亭与正殿连在一起。庙前有一座戏台。庙内木雕藻井是潮汕古建筑木雕艺术精品，前厅、拜亭梁架木雕，具有鲜明的时代和地域特色。 	 Tips:它不像别的庙，周围没有什么建筑。它就立在街边，旁边挨着各种小商铺，好像把自己隐藏在其中，周围热闹的很，你不仔细看，甚至都会错过它。 	 位置：广东省揭阳市榕城区天福路。 门票：免费 时间：7:30-17:30 	 #建筑美学#潮汕旅游#人文景点分享#古建筑#寺庙#小众旅游#我的旅行日记#寺庙祈福#木雕#非遗#广州周边游#深圳周边游#假期去哪玩#周末去哪#视觉震撼#传统文化#我要反向旅游</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>1040g008311s116ij106g4a6gj4n016khmq0eff0!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>被《国家地理》安利的小众海岛有多绝！！</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>📍南澳岛，位于中国广东省汕头市南澳县，是广东省唯一“海岛县”。 介于 东经116°56′~117°9′ 北纬23°24′~23°29′ 南澳岛面积达117.73平方千米，海岸线长94.3千米，北回归线横贯全岛。属基岩质大陆岛，中华白海豚重要栖息地，被誉为“东方夏威夷”。 适合出游的月份:3-6月、9-11月 南澳岛值得去的景点📸 ➊长尾灯塔：上岛后就能看见的一座灯塔，日落时分最美 ❷北回归线广场：位于青澳湾从广场进入到沙滩是看日出的好地方，有个地标性建筑“自然之门” ❸三囱崖灯塔：形状像冰淇淋的灯塔 ❹钱澳湾灯塔：矮胖矮胖的灯塔真的非常可爱 ❺黄花山国家森林公园：门票20元，网上很火的“北回归线”四字打卡点就在这里 ❻后花园生态旅游区：站在山顶俯瞰整个岛屿，美景尽收眼底 ❼前江湾沙滩：南澳岛打卡墙就在这！有多项娱乐设施 ❽环岛公路：南澳岛的海滨公路美得想漫画一样非常治愈，被《中国国家地理》安利的一条环海公路 	 #小众旅行地#海岛游#南澳岛#旅行日记#汕头#汕头南澳岛#南澳岛旅游攻略#南澳岛攻略#小众海岛#沙滩#海边沙滩#海岛日记#海岛度假</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>1040g008310stpb6sme5g5ou0v7hq30cjcsvo0u0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>沉醉于潮汕，吹吹广济楼的风，逛一逛牌坊街</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>总要来趟潮汕吧， 逛逛鼓楼的夜景， 吃吃牌坊街的小吃， 看看湘子桥的灯光秀！ 	 ［潮汕欢乐五日游，感受古城的浪漫］ ⭐️Day1：温馨的家——潮汕 ⭐️Day2：南澳岛 ⭐️Day3：南澳岛——潮州 ⭐️Day4：潮州——汕头 ⭐️Day5：汕头——温馨的家 	 ▪️景点推荐 🖼南澳岛：南澳岛是一座充满魅力的岛屿，无论是其自然风光还是历史文化都令人难以忘怀。我希望更多的人能够了解南澳岛，亲身感受它的美丽与独特。 🖼海上彩虹牧场：在深澳镇走马埔村，放眼望去，海面上漂浮着大片彩色生态浮球方阵，宛若彩虹，构成了一幅美丽多彩的"海上牧场"图景。 🖼潮州古城：古称康济桥，俗称湘子桥，又称潮州湘子桥，位于广东省潮州市古城东门外，横跨韩江，联结东西两岸，集梁桥、浮桥、拱桥于一体，是古代广东通向闽浙交通要津，是古代桥梁建筑的杰作。 🖼杨枝寺：杨枝寺坐落于海边的海上宫殿，寺庙庄重肃穆，踏进寺庙都有一种心情舒畅的感觉，橙黄色的寺庙院墙让人梦回盛唐，在寺庙中拾级而上，壮丽恢弘的天王殿足以令人叹为观止。 🖼小公园：这里自古就流传着一句话"先后小公园，后有汕头"。小公园是"四永一升平"街区的统称，中山八角亭是它的中心，四周街道里的骑楼群里藏着人间烟火气。它是汕头老城的建筑象征，距今有100多年的历史。 	 ▪️美食推荐 🥢潮汕牛肉火锅：传统的潮汕牛肉火锅一般使用新鲜的牛肉片，夹杂着嫩滑的豆腐，青菜和各种海鲜，配以特制的调料，成为了这个地区不可或缺的美味。通过微火慢煮，保持了肉质的鲜嫩和原汁原味，让人垂涎欲滴。 🥢红桃棵：红桃颗是潮州的传统特色小吃，因其形状像桃果，颜色为粉红色而得名，当地人常用来当做拜神祭祖的供品。红桃棵吃起来口感Q弹不粘牙，糯香味十足。 🥢牛肉颗条汤：是一种源自于广东潮汕，具有悠久历史特点的传统名菜，是属于闽南菜系中的潮州菜，以牛肉、牛肉丸和利用米浆米粉制成的颗条为主要原材料配以盐、葱、油炸蒜子等辅料共同制成这道清淡的特色美食。 	 ［旅行全陪团］ ✅全程四钻🛌 ✅精华景点带您游览 ✅各种项目等您来体验 ✅带您解锁潮汕美食体验 #旅游攻略#我的小众旅行攻略#旅游推荐#潮汕#汕头#潮州#美食#潮汕古城#杨枝寺#南澳岛</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>1040g2sg314f9msv6mk7g5p25sv2qavlml5msh9o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
         <is>
           <t>12月份的季节去潮汕旅游真的好适合‼️天气不热，微凉刚刚好🌈这份攻略路线指南请收下🫰畅玩潮汕各个美景美食✅ 住宿地点、行程路线怎么规划❓ 什么出行方式是正确的打开方式❓ 看完你就懂了，这篇帖子写给第一次来潮汕的宝子们，超全干货❗️ 🌟潮汕经典打卡景点 ✅潮州古城：含牌坊街、开元寺、广济桥，一座活着的“千年古城” ✅汕头老城：30年代的复古骑楼建筑，美食小吃很多 ✅南澳岛：这里有灯塔、沙滩、日落，是个放松身心的看景的海岛🏝️ ✅潮汕美食：南澳岛上美食比较少，潮州跟汕头🆚，汕头的美食小吃种类更多😋 🌎路线参考 1️⃣汕头：潮汕博物馆🏯➠广场轮渡🛥➠老市区小公园➠汕头旅社➠存心公馆➠龙眼路美食街 2️⃣南澳岛：南澳大桥➠长山尾灯塔🗼➠田仔地质公园➠钱澳灯塔➠后宅镇美食打卡➠三囱崖灯塔➠风车山➠青澳湾沙滩🏖️➠走马埔➠森林公园·北回归地标 3️⃣潮州：龙湖古寨➠泰佛殿➠韩文公祠➠广济桥➠牌坊街➠开元寺➠西湖公园 🏙️潮汕交通 诸多的景点与特色美食店很多，景区与景区之间相隔较远，本地人吃美食的老店多数在巷子里，自由行或自驾游停车或步行都不方便！推荐报个团游更方便些 🍝推荐美食打卡： 【正餐】牛肉火锅、官塘鱼生、砂锅粥、卤水火锅、海鲜蒸汽火锅 【主食】牛杂/海鲜粿条汤、隆江猪脚饭、粿汁、肠粉、卤鹅饭 【小吃】潮汕生腌、反沙芋头、甘草水果、果汁冰、甜汤、水晶粿、鳖粿、糖葱薄饼 🍱美食：潮汕的美食绝对让人流连忘返！跟团游的导游会带你去当地有名的餐馆，品尝正宗的潮汕美食 🎑美景：潮汕的古街古巷充满韵味，适合拍照打卡 💯安心～服务贴心周到，对潮汕的民俗景点了如指掌，住宿交通等一应俱全，省心又省力！#景点打卡#人文景点分享#平价美食#旅游#游玩攻略#小众旅游#旅游攻略#周末去哪儿#旅行#来拍照了</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>1040g00831ampr2etna305oqfe7265gqcncdu048!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>#景点</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>潮汕第一峰凤鸟髻|十里春野 满山茶香</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>潮汕第一峰|凤鸟髻 到了凤凰镇爬了凤凰山 才知道什么叫凤凰单丛茶 十里春野 满山茶香 人间有幸是三月 	 🏔️海拔1497.8m，拥有“潮汕屋脊”之称，也是粤东第二高峰。凤鸟髻属于凤凰山一部分，附近还有“凤凰天池”景点。 	 路线：官头輋村-金湖-凤鸟髻-二髻-三髻-官头輋村，全程环线约12km，累计爬升约1000m。 	 路况：前半程难度轻松，后半程路迹不明显需要拱林子，难度够大。其中凤鸟髻山顶下来切入大环路口不远处有一处约2m悬崖石头平台需要克服下去。 	 一些小tips： 	 村里有小卖铺，不显眼需要问村民 4-5月是采茶季，可以买到至纯至醇的凤凰单丛茶，价格100到几百不等 凤鸟髻山路陡峭，有登山杖和手套更加顺手省力 没有把握可以上到山顶后原路返回，路程约8km，较为轻松。而走大环，后半程需要认清路迹会看轨迹，建议下载多一些轨迹参考。竹林和爆林路乱石路比较多 下雨石头滑，不建议前往。导航起点“潮安区官头輋” 轨迹看最后一图，需要轨迹可两步路搜索“潮州|凤鸟髻大环”。 	 无痕山野，从我做起。 	 #每周一山#凤凰单丛茶#凤鸟髻#凤凰山#凤凰天池#一起去爬山#深圳户外#户外路线推荐#广东户外@香菜！</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>1040g008311cgv0hkmo005n21redh9pergg01518!nd_dft_wlteh_webp_3.jpg</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>#景点</t>
         </is>
       </c>
     </row>
